--- a/templates/轉出銷倉單格式範例2020(空運).xlsx
+++ b/templates/轉出銷倉單格式範例2020(空運).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1F72F-3ED1-4C67-B14C-CC9E99BC71AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE211637-B919-4680-9031-E4CD9B484351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,52 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>進口日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸存地代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總件數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>C2038</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袋號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一袋多件之袋號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${OL_IMPORTDT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +46,6 @@
   </si>
   <si>
     <t>${table:data0.FLL_WEIGHT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data0.FLL_REMARK}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,21 +72,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -170,12 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -514,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,71 +466,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/templates/轉出銷倉單格式範例2020(空運).xlsx
+++ b/templates/轉出銷倉單格式範例2020(空運).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE211637-B919-4680-9031-E4CD9B484351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9228E2-9FCB-4C1E-B7A8-7A6523B90F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>C2038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${OL_IMPORTDT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +46,14 @@
   </si>
   <si>
     <t>${table:data0.SPACE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data1.FLLR_REMARK}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data0.FLL_REMARK}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,36 +471,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/templates/轉出銷倉單格式範例2020(空運).xlsx
+++ b/templates/轉出銷倉單格式範例2020(空運).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9228E2-9FCB-4C1E-B7A8-7A6523B90F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30330A1D-02D9-42F9-8A70-111F71757FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>${OL_IMPORTDT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>${table:data1.FLLR_REMARK}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data0.FLL_REMARK}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/templates/轉出銷倉單格式範例2020(空運).xlsx
+++ b/templates/轉出銷倉單格式範例2020(空運).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30330A1D-02D9-42F9-8A70-111F71757FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E92EE6-219D-4EE1-802A-3C8A040F63D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${OL_IMPORTDT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +45,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data0.SPACE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data1.FLLR_REMARK}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data0.FLL_BAGNOPARTS}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data0.FLL_REMARK}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -493,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
